--- a/conf-core/src/test/resources/dataloader/slots-import-delete.xlsx
+++ b/conf-core/src/test/resources/dataloader/slots-import-delete.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ESS\Documents\Import-slots-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ess-git\ccdb\conf-core\src\test\resources\dataloader\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
   <si>
     <t>Version</t>
   </si>
@@ -114,9 +114,6 @@
     <t xml:space="preserve">Test </t>
   </si>
   <si>
-    <t>CREATE RELATION</t>
-  </si>
-  <si>
     <t>POWERS</t>
   </si>
   <si>
@@ -129,19 +126,10 @@
     <t>IMPORT_TEST_4</t>
   </si>
   <si>
-    <t>INSTALL</t>
-  </si>
-  <si>
     <t>DELETE ENTITY</t>
   </si>
   <si>
     <t>DELETE PROPERTY</t>
-  </si>
-  <si>
-    <t>DELETE RELATION</t>
-  </si>
-  <si>
-    <t>UNINSTALL</t>
   </si>
   <si>
     <t>IMPORT_TEST_2
@@ -179,13 +167,34 @@
   </si>
   <si>
     <t>BPM1-01</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>https://ccdb.esss.lu.se/resources/help/ccdb_conventions.pdf</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>CREATE RELATIONSHIP</t>
+  </si>
+  <si>
+    <t>INSTALL DEVICE</t>
+  </si>
+  <si>
+    <t>DELETE RELATIONSHIP</t>
+  </si>
+  <si>
+    <t>UNINSTALL DEVICE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +206,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,10 +320,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -319,6 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,7 +354,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -638,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.7109375" style="3"/>
@@ -653,7 +673,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -719,74 +741,68 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="7" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="8" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -796,10 +812,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -810,13 +826,10 @@
         <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -827,16 +840,16 @@
         <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -844,30 +857,27 @@
         <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>26</v>
@@ -881,36 +891,36 @@
         <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -918,16 +928,16 @@
         <v>29</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>30</v>
@@ -935,7 +945,7 @@
     </row>
     <row r="19" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>24</v>
@@ -944,146 +954,169 @@
         <v>27</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="I20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="I24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" t="s">
-        <v>28</v>
+      <c r="G24" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="K25" s="3" t="s">
-        <v>52</v>
+      <c r="I25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="A8:K9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="A9:K10"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I1048576">
       <formula1>"CONTAINS,CONTAINED IN,CONTROLS,CONTROLLED BY,POWERS,POWERED BY"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="B10:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="B11:B1048576">
       <formula1>"CONTAINER,SLOT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A1048576">
-      <formula1>"CREATE ENTITY,UPDATE ENTITY,DELETE ENTITY,CREATE PROPERTY,UPDATE PROPERTY,DELETE PROPERTY,CREATE RELATION,UPDATE RELATION,DELETE RELATION,INSTALL,UNINSTALL"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A1048576">
+      <formula1>"CREATE ENTITY,UPDATE ENTITY,DELETE ENTITY,CREATE PROPERTY,UPDATE PROPERTY,DELETE PROPERTY,CREATE RELATIONSHIP,UPDATE RELATIONSHIP,DELETE RELATIONSHIP,INSTALL DEVICE,UNINSTALL DEVICE"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>